--- a/data-raw/MAST-21.xlsx
+++ b/data-raw/MAST-21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/itembankr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF66F424-63D3-9E47-BBF5-4A7E1479D027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DD82F0-941B-F345-9BFF-0A1304BF394E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4920" yWindow="500" windowWidth="29440" windowHeight="19260" xr2:uid="{6B0E99E5-FB6F-C94C-B409-2ADC1ADE1515}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>melody</t>
   </si>
@@ -120,9 +120,6 @@
     <t>1,1</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>abs_melody</t>
   </si>
   <si>
@@ -187,6 +184,12 @@
   </si>
   <si>
     <t>2,2,-4,0,2,2,-4,4,1,2,-3,1,2,0,2,-2,-2,-1,-4,7,2,-2,-2,-1,-4,0,-5,5,0,-5,5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -566,7 +569,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -579,7 +582,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -588,7 +591,7 @@
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -596,10 +599,10 @@
         <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2</v>
+        <v>42</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -607,10 +610,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2</v>
+        <v>42</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -618,10 +621,10 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2</v>
+        <v>42</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -629,10 +632,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -640,7 +643,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -651,7 +654,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
@@ -662,7 +665,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>27</v>
@@ -673,7 +676,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
@@ -684,7 +687,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>26</v>
@@ -695,7 +698,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>26</v>
@@ -706,7 +709,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>26</v>
@@ -717,7 +720,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>26</v>
@@ -728,10 +731,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -739,10 +742,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -750,10 +753,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -761,10 +764,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -772,7 +775,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>23</v>
@@ -783,13 +786,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -797,13 +800,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -811,7 +814,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>24</v>
@@ -822,10 +825,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/MAST-21.xlsx
+++ b/data-raw/MAST-21.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/itembankr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DD82F0-941B-F345-9BFF-0A1304BF394E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79889908-D195-F547-AE9B-84ADDD004013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4920" yWindow="500" windowWidth="29440" windowHeight="19260" xr2:uid="{6B0E99E5-FB6F-C94C-B409-2ADC1ADE1515}"/>
   </bookViews>
@@ -126,9 +126,6 @@
     <t>6</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -190,6 +187,9 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>-1</t>
   </si>
 </sst>
 </file>
@@ -568,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA801586-A781-C942-9D5F-8B224A231523}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -591,7 +591,7 @@
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -599,10 +599,10 @@
         <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -610,10 +610,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -621,10 +621,10 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -632,10 +632,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -643,7 +643,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -665,7 +665,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>27</v>
@@ -676,7 +676,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
@@ -687,7 +687,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>26</v>
@@ -698,7 +698,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>26</v>
@@ -709,7 +709,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>26</v>
@@ -720,7 +720,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>26</v>
@@ -731,10 +731,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -742,10 +742,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -753,10 +753,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -764,10 +764,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -775,7 +775,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>23</v>
@@ -786,13 +786,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -800,13 +800,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -814,7 +814,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>24</v>
@@ -825,10 +825,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/MAST-21.xlsx
+++ b/data-raw/MAST-21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/itembankr/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79889908-D195-F547-AE9B-84ADDD004013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CCCC6A-CC92-6E47-AAEB-D50406B77FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4920" yWindow="500" windowWidth="29440" windowHeight="19260" xr2:uid="{6B0E99E5-FB6F-C94C-B409-2ADC1ADE1515}"/>
   </bookViews>
@@ -568,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA801586-A781-C942-9D5F-8B224A231523}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
